--- a/output/frequencies/children/LAO_children_2012.xlsx
+++ b/output/frequencies/children/LAO_children_2012.xlsx
@@ -726,7 +726,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Other, Missing, DK</t>
+          <t>Other, DK, Missing</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1095,7 +1095,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Other, Missing, DK</t>
+          <t>Other, DK, Missing</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1464,7 +1464,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Other, Missing, DK</t>
+          <t>Other, DK, Missing</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1833,7 +1833,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Other, Missing, DK</t>
+          <t>Other, DK, Missing</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -2202,7 +2202,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Other, Missing, DK</t>
+          <t>Other, DK, Missing</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -2571,7 +2571,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Other, Missing, DK</t>
+          <t>Other, DK, Missing</t>
         </is>
       </c>
       <c r="B23" t="n">
